--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>31.825501</v>
+        <v>42.409254</v>
       </c>
       <c r="H2">
-        <v>95.47650300000001</v>
+        <v>127.227762</v>
       </c>
       <c r="I2">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="J2">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N2">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O2">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P2">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q2">
-        <v>160.9656716782577</v>
+        <v>173.609943187556</v>
       </c>
       <c r="R2">
-        <v>1448.691045104319</v>
+        <v>1562.489488688004</v>
       </c>
       <c r="S2">
-        <v>0.1051301297331065</v>
+        <v>0.09888110750949249</v>
       </c>
       <c r="T2">
-        <v>0.1051301297331066</v>
+        <v>0.09888110750949247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>31.825501</v>
+        <v>42.409254</v>
       </c>
       <c r="H3">
-        <v>95.47650300000001</v>
+        <v>127.227762</v>
       </c>
       <c r="I3">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="J3">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>42.742233</v>
       </c>
       <c r="O3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q3">
-        <v>453.430993027911</v>
+        <v>604.222071941394</v>
       </c>
       <c r="R3">
-        <v>4080.878937251199</v>
+        <v>5437.998647472547</v>
       </c>
       <c r="S3">
-        <v>0.2961454987577609</v>
+        <v>0.3441401256073204</v>
       </c>
       <c r="T3">
-        <v>0.2961454987577609</v>
+        <v>0.3441401256073204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>31.825501</v>
+        <v>42.409254</v>
       </c>
       <c r="H4">
-        <v>95.47650300000001</v>
+        <v>127.227762</v>
       </c>
       <c r="I4">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="J4">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N4">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q4">
-        <v>314.0078544575487</v>
+        <v>299.88269119673</v>
       </c>
       <c r="R4">
-        <v>2826.070690117938</v>
+        <v>2698.94422077057</v>
       </c>
       <c r="S4">
-        <v>0.2050852590626972</v>
+        <v>0.1708008889584455</v>
       </c>
       <c r="T4">
-        <v>0.2050852590626972</v>
+        <v>0.1708008889584455</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>14.538842</v>
       </c>
       <c r="I5">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="J5">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N5">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O5">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P5">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q5">
-        <v>24.51131319665177</v>
+        <v>19.83912547037378</v>
       </c>
       <c r="R5">
-        <v>220.601818769866</v>
+        <v>178.552129233364</v>
       </c>
       <c r="S5">
-        <v>0.01600886393617849</v>
+        <v>0.01129955267833387</v>
       </c>
       <c r="T5">
-        <v>0.0160088639361785</v>
+        <v>0.01129955267833387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>14.538842</v>
       </c>
       <c r="I6">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="J6">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>42.742233</v>
       </c>
       <c r="O6">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P6">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q6">
         <v>69.04695247935399</v>
@@ -818,10 +818,10 @@
         <v>621.4225723141859</v>
       </c>
       <c r="S6">
-        <v>0.04509604436863677</v>
+        <v>0.0393263139539072</v>
       </c>
       <c r="T6">
-        <v>0.04509604436863677</v>
+        <v>0.0393263139539072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>14.538842</v>
       </c>
       <c r="I7">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="J7">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N7">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O7">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P7">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q7">
-        <v>47.81606404999244</v>
+        <v>34.2688340760411</v>
       </c>
       <c r="R7">
-        <v>430.344576449932</v>
+        <v>308.4195066843699</v>
       </c>
       <c r="S7">
-        <v>0.03122969614881707</v>
+        <v>0.01951812323812144</v>
       </c>
       <c r="T7">
-        <v>0.03122969614881707</v>
+        <v>0.01951812323812144</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.81429</v>
+        <v>21.83492733333334</v>
       </c>
       <c r="H8">
-        <v>47.44287</v>
+        <v>65.50478200000001</v>
       </c>
       <c r="I8">
-        <v>0.301304507992803</v>
+        <v>0.3160338880543792</v>
       </c>
       <c r="J8">
-        <v>0.3013045079928031</v>
+        <v>0.3160338880543791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N8">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O8">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P8">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q8">
-        <v>79.98484649039</v>
+        <v>89.38521988253824</v>
       </c>
       <c r="R8">
-        <v>719.86361841351</v>
+        <v>804.466978942844</v>
       </c>
       <c r="S8">
-        <v>0.05223981735077694</v>
+        <v>0.05091015741774872</v>
       </c>
       <c r="T8">
-        <v>0.05223981735077696</v>
+        <v>0.0509101574177487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.81429</v>
+        <v>21.83492733333334</v>
       </c>
       <c r="H9">
-        <v>47.44287</v>
+        <v>65.50478200000001</v>
       </c>
       <c r="I9">
-        <v>0.301304507992803</v>
+        <v>0.3160338880543792</v>
       </c>
       <c r="J9">
-        <v>0.3013045079928031</v>
+        <v>0.3160338880543791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>42.742233</v>
       </c>
       <c r="O9">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P9">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q9">
-        <v>225.31268930319</v>
+        <v>311.091183873134</v>
       </c>
       <c r="R9">
-        <v>2027.81420372871</v>
+        <v>2799.820654858206</v>
       </c>
       <c r="S9">
-        <v>0.1471565459267984</v>
+        <v>0.1771847869599415</v>
       </c>
       <c r="T9">
-        <v>0.1471565459267985</v>
+        <v>0.1771847869599415</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.81429</v>
+        <v>21.83492733333334</v>
       </c>
       <c r="H10">
-        <v>47.44287</v>
+        <v>65.50478200000001</v>
       </c>
       <c r="I10">
-        <v>0.301304507992803</v>
+        <v>0.3160338880543792</v>
       </c>
       <c r="J10">
-        <v>0.3013045079928031</v>
+        <v>0.3160338880543791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N10">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O10">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P10">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q10">
-        <v>156.03246191378</v>
+        <v>154.3983011539189</v>
       </c>
       <c r="R10">
-        <v>1404.29215722402</v>
+        <v>1389.58471038527</v>
       </c>
       <c r="S10">
-        <v>0.1019081447152276</v>
+        <v>0.08793894367668892</v>
       </c>
       <c r="T10">
-        <v>0.1019081447152276</v>
+        <v>0.0879389436766889</v>
       </c>
     </row>
   </sheetData>
